--- a/week_01.xlsx
+++ b/week_01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
   <si>
     <t>Table 1</t>
   </si>
@@ -40,7 +40,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Risk ID</t>
+    <t>Risk_ID</t>
   </si>
   <si>
     <t>Unique identifier for risk</t>
@@ -82,42 +82,84 @@
     <t>“Risk” or “Issue”</t>
   </si>
   <si>
+    <t>Org_Unit_ID</t>
+  </si>
+  <si>
+    <t>Unit ID</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must match ID in Org Structure </t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Risk’s category</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Risk owner</t>
+  </si>
+  <si>
+    <t>Max Length: 50</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Org level this risk belongs to</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Risk priority</t>
+  </si>
+  <si>
+    <t>1 = low, 5 = high</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Risk velocity</t>
+  </si>
+  <si>
+    <t>1 = low, 3 = high</t>
+  </si>
+  <si>
+    <t>Magnitude</t>
+  </si>
+  <si>
+    <t>Risk magnitude</t>
+  </si>
+  <si>
+    <t>Asset_ID</t>
+  </si>
+  <si>
+    <t>Affected asset ID</t>
+  </si>
+  <si>
+    <t>Mitigation_plan</t>
+  </si>
+  <si>
+    <t>Mitigation Plan</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Org ID</t>
+  </si>
+  <si>
     <t>Org Unit ID</t>
   </si>
   <si>
-    <t>Unit ID</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must match ID in Org Structure </t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Risk’s category</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Risk owner</t>
-  </si>
-  <si>
-    <t>Max Length: 50</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Org ID</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
     <t>Organizational level</t>
   </si>
   <si>
@@ -142,55 +184,16 @@
     <t>Max Length: 20</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Risk priority</t>
-  </si>
-  <si>
-    <t>1 = low, 5 = high</t>
-  </si>
-  <si>
-    <t>Velocity</t>
-  </si>
-  <si>
-    <t>Risk velocity</t>
-  </si>
-  <si>
-    <t>1 = low, 3 = high</t>
-  </si>
-  <si>
-    <t>Magnitude</t>
-  </si>
-  <si>
-    <t>Risk magnitude</t>
-  </si>
-  <si>
-    <t>Mitigation plan</t>
-  </si>
-  <si>
-    <t>Mitigation Plan</t>
-  </si>
-  <si>
-    <t>Asset ID</t>
-  </si>
-  <si>
-    <t>Affected asset ID</t>
-  </si>
-  <si>
-    <t>Asset name</t>
+    <t>Asset_name</t>
   </si>
   <si>
     <t>Affected asset name</t>
   </si>
   <si>
-    <t>Asset Unit ID</t>
-  </si>
-  <si>
     <t>Affected asset owner</t>
   </si>
   <si>
-    <t>Asset value</t>
+    <t>Asset_value</t>
   </si>
   <si>
     <t>Affected asset value</t>
@@ -335,6 +338,9 @@
   </si>
   <si>
     <t>227</t>
+  </si>
+  <si>
+    <t>Mitigation_Plan</t>
   </si>
   <si>
     <t>R01</t>
@@ -2745,7 +2751,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2929,21 +2935,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" ht="56.05" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    <row r="10" ht="26.7" customHeight="1">
+      <c r="A10" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="11">
+        <v>32</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" ht="27.65" customHeight="1">
+    <row r="11" ht="14.7" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="12">
         <v>24</v>
@@ -2951,18 +2961,22 @@
       <c r="D11" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>5</v>
+      </c>
       <c r="G11" t="s" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" ht="26.7" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="14.7" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="12">
         <v>24</v>
@@ -2970,41 +2984,45 @@
       <c r="D12" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
       <c r="F12" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="14.7" customHeight="1">
       <c r="A13" t="s" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
       <c r="F13" s="14">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s" s="12">
         <v>10</v>
@@ -3013,17 +3031,17 @@
         <v>11</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="14">
-        <v>9999</v>
-      </c>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="32.05" customHeight="1">
+      <c r="F14" s="13"/>
+      <c r="G14" t="s" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s" s="12">
         <v>10</v>
@@ -3033,36 +3051,22 @@
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="14">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="G15" t="s" s="12">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s" s="12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="56.05" customHeight="1">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="27.65" customHeight="1">
       <c r="A17" t="s" s="10">
         <v>45</v>
       </c>
@@ -3075,22 +3079,18 @@
       <c r="D17" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E17" s="14">
-        <v>1</v>
-      </c>
-      <c r="F17" s="14">
-        <v>3</v>
-      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" t="s" s="12">
         <v>47</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
+    <row r="18" ht="26.7" customHeight="1">
       <c r="A18" t="s" s="10">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="11">
         <v>48</v>
-      </c>
-      <c r="B18" t="s" s="11">
-        <v>49</v>
       </c>
       <c r="C18" t="s" s="12">
         <v>24</v>
@@ -3098,14 +3098,12 @@
       <c r="D18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E18" s="14">
-        <v>1</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="s" s="12">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -3119,71 +3117,71 @@
         <v>10</v>
       </c>
       <c r="D19" t="s" s="12">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s" s="12">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" t="s" s="10">
+        <v>52</v>
+      </c>
+      <c r="B20" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s" s="12">
+        <v>11</v>
+      </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="F20" s="14">
+        <v>9999</v>
+      </c>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
+    <row r="21" ht="32.05" customHeight="1">
       <c r="A21" t="s" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="12">
         <v>10</v>
       </c>
       <c r="D21" t="s" s="12">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="14">
+        <v>20</v>
+      </c>
       <c r="G21" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>11</v>
-      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="14">
-        <v>50</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="10">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="11">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s" s="12">
         <v>10</v>
@@ -3192,50 +3190,72 @@
         <v>11</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="F23" s="14">
-        <v>50</v>
-      </c>
+      <c r="F23" s="13"/>
       <c r="G23" t="s" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="32.05" customHeight="1">
       <c r="A24" t="s" s="10">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s" s="12">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13"/>
+      <c r="F24" s="14">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="10">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s" s="11">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s" s="12">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="14">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s" s="12">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F26" s="15">
         <v>100000000</v>
       </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
       <c r="G26" s="13"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -3273,6 +3293,24 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3314,28 +3352,28 @@
     </row>
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" t="s" s="5">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="5">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" ht="32.25" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="20">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" s="21">
         <v>1000000</v>
@@ -3344,13 +3382,13 @@
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s" s="12">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="15">
         <v>1500000</v>
@@ -3359,13 +3397,13 @@
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="15">
         <v>1350000</v>
@@ -3374,13 +3412,13 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="15">
         <v>1750000</v>
@@ -3389,13 +3427,13 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="15">
         <v>850000</v>
@@ -3404,13 +3442,13 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s" s="12">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="15">
         <v>5500000</v>
@@ -3419,13 +3457,13 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15">
         <v>4500000</v>
@@ -3434,13 +3472,13 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D10" s="15">
         <v>4000000</v>
@@ -3449,13 +3487,13 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="10">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" s="15">
         <v>2000000</v>
@@ -3464,13 +3502,13 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="10">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D12" s="15">
         <v>500000</v>
@@ -3486,13 +3524,13 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="10">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="15">
         <v>600000</v>
@@ -3501,13 +3539,13 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D15" s="15">
         <v>560000</v>
@@ -3516,13 +3554,13 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="10">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D16" s="15">
         <v>65000</v>
@@ -3531,13 +3569,13 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="10">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="15">
         <v>275000</v>
@@ -3546,13 +3584,13 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s" s="12">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" s="15">
         <v>70000</v>
@@ -3561,13 +3599,13 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="10">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s" s="12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" s="15">
         <v>450000</v>
@@ -3641,48 +3679,48 @@
         <v>28</v>
       </c>
       <c r="H2" t="s" s="24">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s" s="24">
         <v>33</v>
       </c>
-      <c r="I2" t="s" s="24">
-        <v>42</v>
-      </c>
       <c r="J2" t="s" s="24">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s" s="24">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s" s="24">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="M2" t="s" s="24">
-        <v>51</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" ht="32.05" customHeight="1">
       <c r="A3" t="s" s="10">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s" s="12">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s" s="12">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" s="14">
         <v>3</v>
@@ -3694,36 +3732,36 @@
         <v>4</v>
       </c>
       <c r="L3" t="s" s="12">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M3" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
       <c r="A4" t="s" s="10">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s" s="12">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s" s="12">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s" s="12">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s" s="12">
+        <v>120</v>
+      </c>
+      <c r="H4" t="s" s="12">
         <v>115</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>116</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>117</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s" s="12">
-        <v>113</v>
       </c>
       <c r="I4" s="14">
         <v>1</v>
@@ -3735,36 +3773,36 @@
         <v>4</v>
       </c>
       <c r="L4" t="s" s="12">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" ht="32.05" customHeight="1">
       <c r="A5" t="s" s="10">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s" s="12">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s" s="12">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s" s="12">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I5" s="14">
         <v>1</v>
@@ -3776,36 +3814,36 @@
         <v>3</v>
       </c>
       <c r="L5" t="s" s="12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="32.05" customHeight="1">
       <c r="A6" t="s" s="10">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s" s="12">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s" s="12">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s" s="12">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I6" s="14">
         <v>2</v>
@@ -3817,36 +3855,36 @@
         <v>1</v>
       </c>
       <c r="L6" t="s" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" ht="32.05" customHeight="1">
       <c r="A7" t="s" s="10">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s" s="12">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s" s="12">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s" s="12">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s" s="12">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H7" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14">
         <v>2</v>
@@ -3858,36 +3896,36 @@
         <v>3</v>
       </c>
       <c r="L7" t="s" s="12">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" ht="32.05" customHeight="1">
       <c r="A8" t="s" s="10">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="11">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s" s="12">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s" s="12">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s" s="12">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s" s="12">
+        <v>124</v>
+      </c>
+      <c r="G8" t="s" s="12">
         <v>134</v>
       </c>
-      <c r="C8" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>132</v>
-      </c>
       <c r="H8" t="s" s="12">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8" s="14">
         <v>1</v>
@@ -3899,36 +3937,36 @@
         <v>4</v>
       </c>
       <c r="L8" t="s" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M8" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="32.05" customHeight="1">
       <c r="A9" t="s" s="10">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s" s="12">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s" s="12">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" t="s" s="12">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G9" t="s" s="12">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s" s="12">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I9" s="14">
         <v>1</v>
@@ -3940,10 +3978,10 @@
         <v>3</v>
       </c>
       <c r="L9" t="s" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="12">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" ht="32.05" customHeight="1">
@@ -3994,7 +4032,7 @@
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4003,19 +4041,19 @@
     </row>
     <row r="2" ht="23.2" customHeight="1">
       <c r="A2" t="s" s="26">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="26">
         <v>31</v>
       </c>
-      <c r="B2" t="s" s="26">
-        <v>33</v>
-      </c>
       <c r="C2" t="s" s="26">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s" s="26">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s" s="26">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" ht="23.2" customHeight="1">
@@ -4026,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="29">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -4039,13 +4077,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s" s="33">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D4" s="34">
         <v>1</v>
       </c>
       <c r="E4" t="s" s="33">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" ht="23" customHeight="1">
@@ -4056,13 +4094,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s" s="33">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D5" s="34">
         <v>100</v>
       </c>
       <c r="E5" t="s" s="33">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" ht="23" customHeight="1">
@@ -4073,13 +4111,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D6" s="34">
         <v>101</v>
       </c>
       <c r="E6" t="s" s="33">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" ht="23" customHeight="1">
@@ -4090,13 +4128,13 @@
         <v>4</v>
       </c>
       <c r="C7" t="s" s="33">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D7" s="34">
         <v>101</v>
       </c>
       <c r="E7" t="s" s="33">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" ht="23" customHeight="1">
@@ -4107,13 +4145,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s" s="33">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" s="34">
         <v>100</v>
       </c>
       <c r="E8" t="s" s="33">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="23" customHeight="1">
@@ -4124,13 +4162,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D9" s="34">
         <v>100</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" ht="23" customHeight="1">
@@ -4141,13 +4179,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s" s="33">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D10" s="34">
         <v>100</v>
       </c>
       <c r="E10" t="s" s="33">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="23" customHeight="1">
@@ -4158,13 +4196,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s" s="33">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D11" s="34">
         <v>106</v>
       </c>
       <c r="E11" t="s" s="33">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" ht="23" customHeight="1">
@@ -4175,13 +4213,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s" s="33">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D12" s="34">
         <v>106</v>
       </c>
       <c r="E12" t="s" s="33">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="23" customHeight="1">
@@ -4192,13 +4230,13 @@
         <v>3</v>
       </c>
       <c r="C13" t="s" s="33">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" s="34">
         <v>100</v>
       </c>
       <c r="E13" t="s" s="33">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" ht="23" customHeight="1">
@@ -4216,13 +4254,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s" s="33">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" s="34">
         <v>1</v>
       </c>
       <c r="E15" t="s" s="33">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1">
@@ -4233,13 +4271,13 @@
         <v>3</v>
       </c>
       <c r="C16" t="s" s="33">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D16" s="34">
         <v>200</v>
       </c>
       <c r="E16" t="s" s="33">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" ht="23" customHeight="1">
@@ -4250,13 +4288,13 @@
         <v>3</v>
       </c>
       <c r="C17" t="s" s="33">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D17" s="34">
         <v>200</v>
       </c>
       <c r="E17" t="s" s="33">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" ht="23" customHeight="1">
@@ -4267,13 +4305,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s" s="33">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D18" s="34">
         <v>202</v>
       </c>
       <c r="E18" t="s" s="33">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" ht="23" customHeight="1">
@@ -4284,13 +4322,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s" s="33">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D19" s="34">
         <v>202</v>
       </c>
       <c r="E19" t="s" s="33">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" ht="23" customHeight="1">
@@ -4301,13 +4339,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s" s="33">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D20" s="34">
         <v>202</v>
       </c>
       <c r="E20" t="s" s="33">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="23" customHeight="1">
@@ -4318,13 +4356,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s" s="33">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D21" s="34">
         <v>200</v>
       </c>
       <c r="E21" t="s" s="33">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="23" customHeight="1">
@@ -4335,13 +4373,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s" s="33">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D22" s="34">
         <v>206</v>
       </c>
       <c r="E22" t="s" s="33">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" ht="23" customHeight="1">
@@ -4352,13 +4390,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s" s="33">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D23" s="34">
         <v>206</v>
       </c>
       <c r="E23" t="s" s="33">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" ht="23" customHeight="1">
@@ -4369,13 +4407,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s" s="33">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D24" s="34">
         <v>206</v>
       </c>
       <c r="E24" t="s" s="33">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" ht="23" customHeight="1">
@@ -4386,13 +4424,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s" s="33">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D25" s="34">
         <v>200</v>
       </c>
       <c r="E25" t="s" s="33">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" ht="23" customHeight="1">
@@ -4403,13 +4441,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s" s="33">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D26" s="34">
         <v>210</v>
       </c>
       <c r="E26" t="s" s="33">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" ht="23" customHeight="1">
@@ -4420,13 +4458,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s" s="33">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D27" s="34">
         <v>210</v>
       </c>
       <c r="E27" t="s" s="33">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" ht="23" customHeight="1">
@@ -4437,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s" s="33">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D28" s="34">
         <v>200</v>
       </c>
       <c r="E28" t="s" s="33">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" ht="23" customHeight="1">
@@ -4454,13 +4492,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s" s="33">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D29" s="34">
         <v>213</v>
       </c>
       <c r="E29" t="s" s="33">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="23" customHeight="1">
@@ -4471,13 +4509,13 @@
         <v>4</v>
       </c>
       <c r="C30" t="s" s="33">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D30" s="34">
         <v>213</v>
       </c>
       <c r="E30" t="s" s="33">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" ht="23" customHeight="1">
@@ -4488,13 +4526,13 @@
         <v>3</v>
       </c>
       <c r="C31" t="s" s="33">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D31" s="34">
         <v>200</v>
       </c>
       <c r="E31" t="s" s="33">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" ht="23" customHeight="1">
@@ -4505,13 +4543,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s" s="33">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D32" s="34">
         <v>216</v>
       </c>
       <c r="E32" t="s" s="33">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" ht="23" customHeight="1">
@@ -4522,13 +4560,13 @@
         <v>4</v>
       </c>
       <c r="C33" t="s" s="33">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D33" s="34">
         <v>216</v>
       </c>
       <c r="E33" t="s" s="33">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" ht="23" customHeight="1">
@@ -4539,13 +4577,13 @@
         <v>3</v>
       </c>
       <c r="C34" t="s" s="33">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D34" s="34">
         <v>200</v>
       </c>
       <c r="E34" t="s" s="33">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" ht="23" customHeight="1">
@@ -4556,13 +4594,13 @@
         <v>3</v>
       </c>
       <c r="C35" t="s" s="33">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D35" s="34">
         <v>200</v>
       </c>
       <c r="E35" t="s" s="33">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" ht="23" customHeight="1">
@@ -4573,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s" s="33">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D36" s="34">
         <v>200</v>
       </c>
       <c r="E36" t="s" s="33">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" ht="23" customHeight="1">
@@ -4590,13 +4628,13 @@
         <v>3</v>
       </c>
       <c r="C37" t="s" s="33">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D37" s="34">
         <v>200</v>
       </c>
       <c r="E37" t="s" s="33">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" ht="23" customHeight="1">
@@ -4607,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="C38" t="s" s="33">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D38" s="34">
         <v>222</v>
       </c>
       <c r="E38" t="s" s="33">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" ht="23" customHeight="1">
@@ -4624,13 +4662,13 @@
         <v>4</v>
       </c>
       <c r="C39" t="s" s="33">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D39" s="34">
         <v>222</v>
       </c>
       <c r="E39" t="s" s="33">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" ht="23" customHeight="1">
@@ -4641,13 +4679,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s" s="33">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D40" s="34">
         <v>222</v>
       </c>
       <c r="E40" t="s" s="33">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" ht="23" customHeight="1">
@@ -4658,13 +4696,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s" s="33">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D41" s="34">
         <v>200</v>
       </c>
       <c r="E41" t="s" s="33">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" ht="23" customHeight="1">
@@ -4675,13 +4713,13 @@
         <v>3</v>
       </c>
       <c r="C42" t="s" s="33">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D42" s="34">
         <v>200</v>
       </c>
       <c r="E42" t="s" s="33">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" ht="23" customHeight="1">
@@ -4692,13 +4730,13 @@
         <v>3</v>
       </c>
       <c r="C43" t="s" s="33">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D43" s="34">
         <v>200</v>
       </c>
       <c r="E43" t="s" s="33">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" ht="23" customHeight="1">
@@ -4716,13 +4754,13 @@
         <v>2</v>
       </c>
       <c r="C45" t="s" s="33">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
       </c>
       <c r="E45" t="s" s="33">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" ht="23" customHeight="1">
@@ -4733,13 +4771,13 @@
         <v>3</v>
       </c>
       <c r="C46" t="s" s="33">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D46" s="34">
         <v>300</v>
       </c>
       <c r="E46" t="s" s="33">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" ht="23" customHeight="1">
@@ -4750,13 +4788,13 @@
         <v>4</v>
       </c>
       <c r="C47" t="s" s="33">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D47" s="34">
         <v>301</v>
       </c>
       <c r="E47" t="s" s="33">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" ht="23" customHeight="1">
@@ -4767,13 +4805,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s" s="33">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D48" s="34">
         <v>301</v>
       </c>
       <c r="E48" t="s" s="33">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" ht="23" customHeight="1">
@@ -4784,13 +4822,13 @@
         <v>4</v>
       </c>
       <c r="C49" t="s" s="33">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D49" s="34">
         <v>301</v>
       </c>
       <c r="E49" t="s" s="33">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" ht="23" customHeight="1">
@@ -4801,13 +4839,13 @@
         <v>3</v>
       </c>
       <c r="C50" t="s" s="33">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D50" s="34">
         <v>300</v>
       </c>
       <c r="E50" t="s" s="33">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" ht="23" customHeight="1">
@@ -4818,13 +4856,13 @@
         <v>4</v>
       </c>
       <c r="C51" t="s" s="33">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D51" s="34">
         <v>305</v>
       </c>
       <c r="E51" t="s" s="33">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" ht="23" customHeight="1">
@@ -4835,13 +4873,13 @@
         <v>4</v>
       </c>
       <c r="C52" t="s" s="33">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D52" s="34">
         <v>305</v>
       </c>
       <c r="E52" t="s" s="33">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" ht="23" customHeight="1">
@@ -4852,13 +4890,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s" s="33">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D53" s="34">
         <v>305</v>
       </c>
       <c r="E53" t="s" s="33">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" ht="23" customHeight="1">
@@ -4869,13 +4907,13 @@
         <v>4</v>
       </c>
       <c r="C54" t="s" s="33">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D54" s="34">
         <v>305</v>
       </c>
       <c r="E54" t="s" s="33">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" ht="23" customHeight="1">
@@ -4886,13 +4924,13 @@
         <v>3</v>
       </c>
       <c r="C55" t="s" s="33">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D55" s="34">
         <v>300</v>
       </c>
       <c r="E55" t="s" s="33">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" ht="23" customHeight="1">
@@ -4903,13 +4941,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s" s="33">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D56" s="34">
         <v>310</v>
       </c>
       <c r="E56" t="s" s="33">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" ht="23" customHeight="1">
@@ -4920,13 +4958,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s" s="33">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D57" s="34">
         <v>310</v>
       </c>
       <c r="E57" t="s" s="33">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" ht="23" customHeight="1">
@@ -4937,13 +4975,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s" s="33">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D58" s="34">
         <v>310</v>
       </c>
       <c r="E58" t="s" s="33">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" ht="23" customHeight="1">
@@ -4954,13 +4992,13 @@
         <v>4</v>
       </c>
       <c r="C59" t="s" s="33">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D59" s="34">
         <v>310</v>
       </c>
       <c r="E59" t="s" s="33">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" ht="23" customHeight="1">
@@ -4971,13 +5009,13 @@
         <v>4</v>
       </c>
       <c r="C60" t="s" s="33">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D60" s="34">
         <v>310</v>
       </c>
       <c r="E60" t="s" s="33">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" ht="23" customHeight="1">
@@ -4988,13 +5026,13 @@
         <v>3</v>
       </c>
       <c r="C61" t="s" s="33">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D61" s="34">
         <v>300</v>
       </c>
       <c r="E61" t="s" s="33">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" ht="23" customHeight="1">
@@ -5005,13 +5043,13 @@
         <v>4</v>
       </c>
       <c r="C62" t="s" s="33">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D62" s="34">
         <v>316</v>
       </c>
       <c r="E62" t="s" s="33">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" ht="23" customHeight="1">
@@ -5022,13 +5060,13 @@
         <v>4</v>
       </c>
       <c r="C63" t="s" s="33">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D63" s="34">
         <v>316</v>
       </c>
       <c r="E63" t="s" s="33">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" ht="23" customHeight="1">
@@ -5039,13 +5077,13 @@
         <v>4</v>
       </c>
       <c r="C64" t="s" s="33">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D64" s="34">
         <v>316</v>
       </c>
       <c r="E64" t="s" s="33">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="65" ht="23" customHeight="1">
@@ -5056,13 +5094,13 @@
         <v>3</v>
       </c>
       <c r="C65" t="s" s="33">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D65" s="34">
         <v>300</v>
       </c>
       <c r="E65" t="s" s="33">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="66" ht="23" customHeight="1">
@@ -5080,13 +5118,13 @@
         <v>2</v>
       </c>
       <c r="C67" t="s" s="33">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D67" s="34">
         <v>1</v>
       </c>
       <c r="E67" t="s" s="33">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" ht="23" customHeight="1">
@@ -5097,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="C68" t="s" s="33">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D68" s="34">
         <v>400</v>
@@ -5112,7 +5150,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="s" s="33">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D69" s="34">
         <v>400</v>
@@ -5127,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s" s="33">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D70" s="34">
         <v>402</v>
@@ -5142,7 +5180,7 @@
         <v>4</v>
       </c>
       <c r="C71" t="s" s="33">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D71" s="34">
         <v>402</v>
@@ -5157,7 +5195,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="s" s="33">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D72" s="34">
         <v>400</v>
@@ -5172,7 +5210,7 @@
         <v>4</v>
       </c>
       <c r="C73" t="s" s="33">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D73" s="34">
         <v>405</v>
@@ -5187,7 +5225,7 @@
         <v>4</v>
       </c>
       <c r="C74" t="s" s="33">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D74" s="34">
         <v>405</v>
@@ -5202,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="s" s="33">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D75" s="34">
         <v>405</v>
@@ -5217,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="C76" t="s" s="33">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D76" s="34">
         <v>405</v>
@@ -5232,7 +5270,7 @@
         <v>4</v>
       </c>
       <c r="C77" t="s" s="33">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D77" s="34">
         <v>405</v>
@@ -5247,7 +5285,7 @@
         <v>4</v>
       </c>
       <c r="C78" t="s" s="33">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D78" s="34">
         <v>405</v>
@@ -5262,7 +5300,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="s" s="33">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D79" s="34">
         <v>400</v>
@@ -5277,7 +5315,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="s" s="33">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D80" s="34">
         <v>412</v>
@@ -5292,7 +5330,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="s" s="33">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D81" s="34">
         <v>413</v>
@@ -5307,7 +5345,7 @@
         <v>5</v>
       </c>
       <c r="C82" t="s" s="33">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D82" s="34">
         <v>413</v>
@@ -5322,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="C83" t="s" s="33">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D83" s="34">
         <v>413</v>
@@ -5337,7 +5375,7 @@
         <v>5</v>
       </c>
       <c r="C84" t="s" s="33">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D84" s="34">
         <v>413</v>
@@ -5352,7 +5390,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="s" s="33">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D85" s="34">
         <v>412</v>
@@ -5367,7 +5405,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="s" s="33">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D86" s="34">
         <v>418</v>
@@ -5382,7 +5420,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s" s="33">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D87" s="34">
         <v>418</v>
@@ -5397,7 +5435,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s" s="33">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D88" s="34">
         <v>418</v>
@@ -5412,7 +5450,7 @@
         <v>4</v>
       </c>
       <c r="C89" t="s" s="33">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D89" s="34">
         <v>412</v>
@@ -5427,7 +5465,7 @@
         <v>5</v>
       </c>
       <c r="C90" t="s" s="33">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D90" s="34">
         <v>422</v>
@@ -5442,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="s" s="33">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D91" s="34">
         <v>422</v>
@@ -5457,7 +5495,7 @@
         <v>5</v>
       </c>
       <c r="C92" t="s" s="33">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D92" s="34">
         <v>422</v>
@@ -5472,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="C93" t="s" s="33">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D93" s="34">
         <v>412</v>
@@ -5487,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="s" s="33">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D94" s="34">
         <v>400</v>
@@ -5502,7 +5540,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="s" s="33">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D95" s="34">
         <v>427</v>
@@ -5517,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="C96" t="s" s="33">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D96" s="34">
         <v>427</v>
@@ -5532,7 +5570,7 @@
         <v>5</v>
       </c>
       <c r="C97" t="s" s="33">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D97" s="34">
         <v>429</v>
@@ -5547,7 +5585,7 @@
         <v>5</v>
       </c>
       <c r="C98" t="s" s="33">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D98" s="34">
         <v>429</v>
@@ -5562,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="C99" t="s" s="33">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D99" s="34">
         <v>429</v>
@@ -5577,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="C100" t="s" s="33">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D100" s="34">
         <v>429</v>
@@ -5592,7 +5630,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="s" s="33">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D101" s="34">
         <v>429</v>
@@ -5607,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="C102" t="s" s="33">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D102" s="34">
         <v>427</v>
@@ -5622,7 +5660,7 @@
         <v>3</v>
       </c>
       <c r="C103" t="s" s="33">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D103" s="34">
         <v>400</v>
@@ -5637,7 +5675,7 @@
         <v>4</v>
       </c>
       <c r="C104" t="s" s="33">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D104" s="34">
         <v>436</v>
@@ -5652,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="s" s="33">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D105" s="34">
         <v>436</v>
@@ -5667,7 +5705,7 @@
         <v>4</v>
       </c>
       <c r="C106" t="s" s="33">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D106" s="34">
         <v>436</v>
@@ -5682,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="C107" t="s" s="33">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D107" s="34">
         <v>436</v>
@@ -5697,7 +5735,7 @@
         <v>3</v>
       </c>
       <c r="C108" t="s" s="33">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D108" s="34">
         <v>400</v>
@@ -5712,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="C109" t="s" s="33">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="34">
         <v>441</v>
@@ -5727,7 +5765,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="s" s="33">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="34">
         <v>441</v>
@@ -5742,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="C111" t="s" s="33">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D111" s="34">
         <v>441</v>
@@ -5757,7 +5795,7 @@
         <v>3</v>
       </c>
       <c r="C112" t="s" s="33">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="34">
         <v>400</v>
@@ -5772,7 +5810,7 @@
         <v>4</v>
       </c>
       <c r="C113" t="s" s="33">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="34">
         <v>445</v>
@@ -5787,7 +5825,7 @@
         <v>4</v>
       </c>
       <c r="C114" t="s" s="33">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="34">
         <v>445</v>
@@ -5802,7 +5840,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="s" s="33">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="34">
         <v>445</v>
@@ -5817,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="s" s="33">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D116" s="34">
         <v>400</v>
@@ -5832,7 +5870,7 @@
         <v>4</v>
       </c>
       <c r="C117" t="s" s="33">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D117" s="34">
         <v>449</v>
@@ -5847,7 +5885,7 @@
         <v>4</v>
       </c>
       <c r="C118" t="s" s="33">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="34">
         <v>449</v>
@@ -5862,7 +5900,7 @@
         <v>4</v>
       </c>
       <c r="C119" t="s" s="33">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D119" s="34">
         <v>449</v>
@@ -5877,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="s" s="33">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D120" s="34">
         <v>400</v>
@@ -5892,7 +5930,7 @@
         <v>4</v>
       </c>
       <c r="C121" t="s" s="33">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D121" s="34">
         <v>453</v>
@@ -5907,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="C122" t="s" s="33">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D122" s="34">
         <v>453</v>
@@ -5922,7 +5960,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="s" s="33">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D123" s="34">
         <v>453</v>
@@ -5937,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="C124" t="s" s="33">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D124" s="34">
         <v>453</v>
@@ -5959,13 +5997,13 @@
         <v>2</v>
       </c>
       <c r="C126" t="s" s="33">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D126" s="34">
         <v>1</v>
       </c>
       <c r="E126" t="s" s="33">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" ht="23" customHeight="1">
@@ -5976,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s" s="33">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D127" s="34">
         <v>500</v>
@@ -5991,7 +6029,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s" s="33">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D128" s="34">
         <v>500</v>
@@ -6006,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="C129" t="s" s="33">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D129" s="34">
         <v>502</v>
@@ -6021,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="s" s="33">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D130" s="34">
         <v>502</v>
@@ -6036,7 +6074,7 @@
         <v>3</v>
       </c>
       <c r="C131" t="s" s="33">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D131" s="34">
         <v>500</v>
@@ -6051,7 +6089,7 @@
         <v>4</v>
       </c>
       <c r="C132" t="s" s="33">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D132" s="34">
         <v>505</v>
@@ -6066,7 +6104,7 @@
         <v>4</v>
       </c>
       <c r="C133" t="s" s="33">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D133" s="34">
         <v>505</v>
@@ -6081,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="C134" t="s" s="33">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D134" s="34">
         <v>505</v>
@@ -6096,7 +6134,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="s" s="33">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D135" s="34">
         <v>505</v>
@@ -6111,7 +6149,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s" s="33">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D136" s="34">
         <v>500</v>
@@ -6126,7 +6164,7 @@
         <v>4</v>
       </c>
       <c r="C137" t="s" s="33">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D137" s="34">
         <v>510</v>
@@ -6141,7 +6179,7 @@
         <v>4</v>
       </c>
       <c r="C138" t="s" s="33">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D138" s="34">
         <v>510</v>
@@ -6156,7 +6194,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="s" s="33">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D139" s="34">
         <v>500</v>
@@ -6178,13 +6216,13 @@
         <v>2</v>
       </c>
       <c r="C141" t="s" s="33">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D141" s="34">
         <v>1</v>
       </c>
       <c r="E141" t="s" s="33">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="142" ht="23" customHeight="1">
@@ -6195,7 +6233,7 @@
         <v>3</v>
       </c>
       <c r="C142" t="s" s="33">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D142" s="34">
         <v>600</v>
@@ -6210,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="s" s="33">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D143" s="34">
         <v>600</v>
@@ -6225,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="C144" t="s" s="33">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D144" s="34">
         <v>602</v>
@@ -6240,7 +6278,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="s" s="33">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D145" s="34">
         <v>602</v>
@@ -6255,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="C146" t="s" s="33">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D146" s="34">
         <v>602</v>
@@ -6270,7 +6308,7 @@
         <v>4</v>
       </c>
       <c r="C147" t="s" s="33">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D147" s="34">
         <v>602</v>
@@ -6285,7 +6323,7 @@
         <v>3</v>
       </c>
       <c r="C148" t="s" s="33">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D148" s="34">
         <v>600</v>
@@ -6300,7 +6338,7 @@
         <v>4</v>
       </c>
       <c r="C149" t="s" s="33">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D149" s="34">
         <v>607</v>
@@ -6315,7 +6353,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="s" s="33">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D150" s="34">
         <v>607</v>
@@ -6330,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="C151" t="s" s="33">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D151" s="34">
         <v>607</v>
@@ -6345,7 +6383,7 @@
         <v>4</v>
       </c>
       <c r="C152" t="s" s="33">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D152" s="34">
         <v>607</v>
@@ -6360,7 +6398,7 @@
         <v>3</v>
       </c>
       <c r="C153" t="s" s="33">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D153" s="34">
         <v>600</v>
@@ -6375,7 +6413,7 @@
         <v>4</v>
       </c>
       <c r="C154" t="s" s="33">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D154" s="34">
         <v>612</v>
@@ -6390,7 +6428,7 @@
         <v>4</v>
       </c>
       <c r="C155" t="s" s="33">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D155" s="34">
         <v>612</v>
@@ -6405,7 +6443,7 @@
         <v>4</v>
       </c>
       <c r="C156" t="s" s="33">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D156" s="34">
         <v>612</v>
@@ -6420,7 +6458,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="s" s="33">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D157" s="34">
         <v>600</v>
@@ -6435,7 +6473,7 @@
         <v>4</v>
       </c>
       <c r="C158" t="s" s="33">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D158" s="34">
         <v>616</v>
@@ -6450,7 +6488,7 @@
         <v>4</v>
       </c>
       <c r="C159" t="s" s="33">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D159" s="34">
         <v>616</v>
@@ -6465,7 +6503,7 @@
         <v>4</v>
       </c>
       <c r="C160" t="s" s="33">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D160" s="34">
         <v>616</v>
@@ -6480,7 +6518,7 @@
         <v>4</v>
       </c>
       <c r="C161" t="s" s="33">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D161" s="34">
         <v>616</v>
@@ -6495,7 +6533,7 @@
         <v>4</v>
       </c>
       <c r="C162" t="s" s="33">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D162" s="34">
         <v>616</v>
@@ -6510,7 +6548,7 @@
         <v>3</v>
       </c>
       <c r="C163" t="s" s="33">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D163" s="34">
         <v>600</v>
@@ -6532,13 +6570,13 @@
         <v>2</v>
       </c>
       <c r="C165" t="s" s="33">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D165" s="34">
         <v>1</v>
       </c>
       <c r="E165" t="s" s="33">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" ht="23" customHeight="1">
@@ -6549,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="C166" t="s" s="33">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D166" s="34">
         <v>700</v>
@@ -6564,7 +6602,7 @@
         <v>3</v>
       </c>
       <c r="C167" t="s" s="33">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D167" s="34">
         <v>700</v>
@@ -6579,7 +6617,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s" s="33">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D168" s="34">
         <v>702</v>
@@ -6594,7 +6632,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s" s="33">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D169" s="34">
         <v>702</v>
@@ -6609,7 +6647,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s" s="33">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D170" s="34">
         <v>702</v>
@@ -6624,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="C171" t="s" s="33">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D171" s="34">
         <v>700</v>
@@ -6639,7 +6677,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s" s="33">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D172" s="34">
         <v>706</v>
@@ -6654,7 +6692,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s" s="33">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D173" s="34">
         <v>706</v>
@@ -6669,7 +6707,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s" s="33">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D174" s="34">
         <v>706</v>
@@ -6684,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="C175" t="s" s="33">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D175" s="34">
         <v>700</v>
@@ -6699,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="C176" t="s" s="33">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D176" s="34">
         <v>710</v>
@@ -6714,7 +6752,7 @@
         <v>4</v>
       </c>
       <c r="C177" t="s" s="33">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D177" s="34">
         <v>710</v>
@@ -6729,7 +6767,7 @@
         <v>4</v>
       </c>
       <c r="C178" t="s" s="33">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D178" s="34">
         <v>710</v>
@@ -6744,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s" s="33">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D179" s="34">
         <v>700</v>
@@ -6759,7 +6797,7 @@
         <v>4</v>
       </c>
       <c r="C180" t="s" s="33">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D180" s="34">
         <v>714</v>
@@ -6774,7 +6812,7 @@
         <v>4</v>
       </c>
       <c r="C181" t="s" s="33">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D181" s="34">
         <v>714</v>
@@ -6789,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="C182" t="s" s="33">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D182" s="34">
         <v>714</v>
@@ -6804,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="C183" t="s" s="33">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D183" s="34">
         <v>700</v>
@@ -6819,7 +6857,7 @@
         <v>4</v>
       </c>
       <c r="C184" t="s" s="33">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D184" s="34">
         <v>718</v>
@@ -6834,7 +6872,7 @@
         <v>4</v>
       </c>
       <c r="C185" t="s" s="33">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D185" s="34">
         <v>718</v>
@@ -6849,7 +6887,7 @@
         <v>4</v>
       </c>
       <c r="C186" t="s" s="33">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D186" s="34">
         <v>718</v>
@@ -6864,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="C187" t="s" s="33">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D187" s="34">
         <v>718</v>
@@ -6879,7 +6917,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="s" s="33">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D188" s="34">
         <v>700</v>
@@ -6894,7 +6932,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="s" s="33">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D189" s="34">
         <v>700</v>
@@ -6916,13 +6954,13 @@
         <v>2</v>
       </c>
       <c r="C191" t="s" s="33">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D191" s="34">
         <v>1</v>
       </c>
       <c r="E191" t="s" s="33">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="192" ht="23" customHeight="1">
@@ -6933,7 +6971,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s" s="33">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D192" s="34">
         <v>800</v>
@@ -6948,7 +6986,7 @@
         <v>3</v>
       </c>
       <c r="C193" t="s" s="33">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D193" s="34">
         <v>800</v>
@@ -6963,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="C194" t="s" s="33">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D194" s="34">
         <v>802</v>
@@ -6978,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="C195" t="s" s="33">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D195" s="34">
         <v>802</v>
@@ -6993,7 +7031,7 @@
         <v>3</v>
       </c>
       <c r="C196" t="s" s="33">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D196" s="34">
         <v>800</v>
@@ -7008,7 +7046,7 @@
         <v>4</v>
       </c>
       <c r="C197" t="s" s="33">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D197" s="34">
         <v>805</v>
@@ -7023,7 +7061,7 @@
         <v>4</v>
       </c>
       <c r="C198" t="s" s="33">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D198" s="34">
         <v>805</v>
@@ -7038,7 +7076,7 @@
         <v>3</v>
       </c>
       <c r="C199" t="s" s="33">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D199" s="34">
         <v>800</v>
@@ -7053,7 +7091,7 @@
         <v>4</v>
       </c>
       <c r="C200" t="s" s="33">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D200" s="34">
         <v>808</v>
@@ -7068,7 +7106,7 @@
         <v>4</v>
       </c>
       <c r="C201" t="s" s="33">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D201" s="34">
         <v>808</v>
@@ -7083,7 +7121,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="s" s="33">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D202" s="34">
         <v>800</v>
@@ -7105,13 +7143,13 @@
         <v>2</v>
       </c>
       <c r="C204" t="s" s="33">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D204" s="34">
         <v>1</v>
       </c>
       <c r="E204" t="s" s="33">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="205" ht="23" customHeight="1">
@@ -7122,7 +7160,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="s" s="33">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D205" s="34">
         <v>900</v>
@@ -7137,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="C206" t="s" s="33">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D206" s="34">
         <v>901</v>
@@ -7152,7 +7190,7 @@
         <v>4</v>
       </c>
       <c r="C207" t="s" s="33">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D207" s="34">
         <v>901</v>
@@ -7167,7 +7205,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s" s="33">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D208" s="34">
         <v>901</v>
@@ -7182,7 +7220,7 @@
         <v>4</v>
       </c>
       <c r="C209" t="s" s="33">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D209" s="34">
         <v>901</v>
@@ -7197,7 +7235,7 @@
         <v>4</v>
       </c>
       <c r="C210" t="s" s="33">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D210" s="34">
         <v>901</v>
@@ -7212,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="s" s="33">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D211" s="34">
         <v>901</v>
@@ -7227,7 +7265,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="s" s="33">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D212" s="34">
         <v>900</v>
@@ -7242,7 +7280,7 @@
         <v>4</v>
       </c>
       <c r="C213" t="s" s="33">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D213" s="34">
         <v>908</v>
@@ -7257,7 +7295,7 @@
         <v>4</v>
       </c>
       <c r="C214" t="s" s="33">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D214" s="34">
         <v>908</v>
@@ -7272,7 +7310,7 @@
         <v>4</v>
       </c>
       <c r="C215" t="s" s="33">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D215" s="34">
         <v>908</v>
@@ -7287,7 +7325,7 @@
         <v>4</v>
       </c>
       <c r="C216" t="s" s="33">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D216" s="34">
         <v>908</v>
@@ -7302,7 +7340,7 @@
         <v>4</v>
       </c>
       <c r="C217" t="s" s="33">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D217" s="34">
         <v>908</v>
@@ -7317,7 +7355,7 @@
         <v>4</v>
       </c>
       <c r="C218" t="s" s="33">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D218" s="34">
         <v>908</v>
@@ -7332,7 +7370,7 @@
         <v>4</v>
       </c>
       <c r="C219" t="s" s="33">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D219" s="34">
         <v>908</v>
@@ -7347,7 +7385,7 @@
         <v>4</v>
       </c>
       <c r="C220" t="s" s="33">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D220" s="34">
         <v>908</v>
@@ -7362,7 +7400,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="s" s="33">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D221" s="34">
         <v>900</v>
@@ -7377,7 +7415,7 @@
         <v>4</v>
       </c>
       <c r="C222" t="s" s="33">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D222" s="34">
         <v>917</v>
@@ -7399,13 +7437,13 @@
         <v>2</v>
       </c>
       <c r="C224" t="s" s="33">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D224" s="34">
         <v>1</v>
       </c>
       <c r="E224" t="s" s="33">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="225" ht="23" customHeight="1">
@@ -7416,7 +7454,7 @@
         <v>3</v>
       </c>
       <c r="C225" t="s" s="33">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D225" s="34">
         <v>1000</v>
@@ -7431,7 +7469,7 @@
         <v>3</v>
       </c>
       <c r="C226" t="s" s="33">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D226" s="34">
         <v>1000</v>
@@ -7446,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="C227" t="s" s="33">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D227" s="34">
         <v>1002</v>
@@ -7461,7 +7499,7 @@
         <v>4</v>
       </c>
       <c r="C228" t="s" s="33">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D228" s="34">
         <v>1002</v>
@@ -7476,7 +7514,7 @@
         <v>4</v>
       </c>
       <c r="C229" t="s" s="33">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D229" s="34">
         <v>1002</v>
@@ -7491,7 +7529,7 @@
         <v>3</v>
       </c>
       <c r="C230" t="s" s="33">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D230" s="34">
         <v>1000</v>
@@ -7506,7 +7544,7 @@
         <v>4</v>
       </c>
       <c r="C231" t="s" s="33">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D231" s="34">
         <v>1006</v>
@@ -7521,7 +7559,7 @@
         <v>4</v>
       </c>
       <c r="C232" t="s" s="33">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D232" s="34">
         <v>1006</v>
@@ -7536,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="C233" t="s" s="33">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D233" s="34">
         <v>1006</v>
@@ -7551,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="C234" t="s" s="33">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D234" s="34">
         <v>1006</v>
@@ -7566,7 +7604,7 @@
         <v>3</v>
       </c>
       <c r="C235" t="s" s="33">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D235" s="34">
         <v>1000</v>
@@ -7581,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="C236" t="s" s="33">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D236" s="34">
         <v>1000</v>
@@ -7603,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="C238" t="s" s="33">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D238" s="34">
         <v>1</v>
@@ -7618,7 +7656,7 @@
         <v>3</v>
       </c>
       <c r="C239" t="s" s="33">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D239" s="34">
         <v>1100</v>
@@ -7633,7 +7671,7 @@
         <v>4</v>
       </c>
       <c r="C240" t="s" s="33">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D240" s="34">
         <v>1101</v>
@@ -7648,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="C241" t="s" s="33">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D241" s="34">
         <v>1100</v>
@@ -7670,7 +7708,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="s" s="33">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D243" s="34">
         <v>1</v>
@@ -7685,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="s" s="33">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D244" s="34">
         <v>1200</v>
@@ -7700,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s" s="33">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D245" s="34">
         <v>1201</v>
@@ -7715,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="C246" t="s" s="33">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D246" s="34">
         <v>1200</v>
